--- a/供应商-PC.xlsx
+++ b/供应商-PC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F851D7-3922-47FD-AC05-22D32132E5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D85947-5CD4-4479-A676-E6974B1A76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,12 @@
   </si>
   <si>
     <t>PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙江赛扬</t>
   </si>
   <si>
     <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>江苏丰源电子科技有限公司</t>
@@ -62,9 +60,6 @@
     <t>南通华达</t>
   </si>
   <si>
-    <t>绍兴千欣电子技术有限公司</t>
-  </si>
-  <si>
     <t>江苏尊阳</t>
   </si>
   <si>
@@ -93,6 +88,9 @@
   </si>
   <si>
     <t>池州华宇</t>
+  </si>
+  <si>
+    <t>绍兴千欣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,11 +116,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,12 +129,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -147,7 +158,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,10 +444,14 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -494,7 +511,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -502,7 +519,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -510,7 +527,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -518,7 +535,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -526,7 +543,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -534,7 +551,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -542,7 +559,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -550,7 +567,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -558,7 +575,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -566,7 +583,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -574,7 +591,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
